--- a/biology/Botanique/Gagea_bohemica/Gagea_bohemica.xlsx
+++ b/biology/Botanique/Gagea_bohemica/Gagea_bohemica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gagée de Bohême, Gagée des rochers
 La Gagée de Bohême ou Gagée des rochers (Gagea bohemica) est une espèce de plantes à bulbe du genre des gagées et de la famille des Liliacées.
@@ -512,15 +524,17 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 mars 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 mars 2016) :
 sous-espèce Gagea bohemica subsp. bohemica
 sous-espèce Gagea bohemica subsp. saxatilis (Mert. &amp; W. D. J. Koch) Asch. &amp; Graebn.
-Selon NCBI  (24 mars 2016)[3] :
+Selon NCBI  (24 mars 2016) :
 sous-espèce Gagea bohemica subsp. bohemica
 sous-espèce Gagea bohemica subsp. saxatilis
-Selon Tropicos                                           (24 mars 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 mars 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Gagea bohemica subsp. aleppoana (Pascher) Stroh
 sous-espèce Gagea bohemica subsp. corsica (Nyman) Gamisans
 sous-espèce Gagea bohemica subsp. gallica (Rouy) I. Richardson
